--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Pgf</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Pgf</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.017245666666667</v>
+        <v>42.83204533333333</v>
       </c>
       <c r="H2">
-        <v>12.051737</v>
+        <v>128.496136</v>
       </c>
       <c r="I2">
-        <v>0.7057095797657195</v>
+        <v>0.9636841903994534</v>
       </c>
       <c r="J2">
-        <v>0.7057095797657194</v>
+        <v>0.9636841903994535</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N2">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O2">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P2">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q2">
-        <v>391.3595546219757</v>
+        <v>3951.385149288498</v>
       </c>
       <c r="R2">
-        <v>3522.235991597781</v>
+        <v>35562.46634359648</v>
       </c>
       <c r="S2">
-        <v>0.2435604577940798</v>
+        <v>0.2751039072622068</v>
       </c>
       <c r="T2">
-        <v>0.2435604577940797</v>
+        <v>0.2751039072622068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.017245666666667</v>
+        <v>42.83204533333333</v>
       </c>
       <c r="H3">
-        <v>12.051737</v>
+        <v>128.496136</v>
       </c>
       <c r="I3">
-        <v>0.7057095797657195</v>
+        <v>0.9636841903994534</v>
       </c>
       <c r="J3">
-        <v>0.7057095797657194</v>
+        <v>0.9636841903994535</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q3">
-        <v>140.2534471665353</v>
+        <v>1495.388259931322</v>
       </c>
       <c r="R3">
-        <v>1262.281024498818</v>
+        <v>13458.4943393819</v>
       </c>
       <c r="S3">
-        <v>0.08728595838697574</v>
+        <v>0.1041121372982878</v>
       </c>
       <c r="T3">
-        <v>0.0872859583869757</v>
+        <v>0.1041121372982878</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.017245666666667</v>
+        <v>42.83204533333333</v>
       </c>
       <c r="H4">
-        <v>12.051737</v>
+        <v>128.496136</v>
       </c>
       <c r="I4">
-        <v>0.7057095797657195</v>
+        <v>0.9636841903994534</v>
       </c>
       <c r="J4">
-        <v>0.7057095797657194</v>
+        <v>0.9636841903994535</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N4">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q4">
-        <v>202.5784225614136</v>
+        <v>1808.272396265804</v>
       </c>
       <c r="R4">
-        <v>1823.205803052723</v>
+        <v>16274.45156639223</v>
       </c>
       <c r="S4">
-        <v>0.126073562675426</v>
+        <v>0.1258958018042587</v>
       </c>
       <c r="T4">
-        <v>0.1260735626754259</v>
+        <v>0.1258958018042588</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>4.017245666666667</v>
+        <v>42.83204533333333</v>
       </c>
       <c r="H5">
-        <v>12.051737</v>
+        <v>128.496136</v>
       </c>
       <c r="I5">
-        <v>0.7057095797657195</v>
+        <v>0.9636841903994534</v>
       </c>
       <c r="J5">
-        <v>0.7057095797657194</v>
+        <v>0.9636841903994535</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N5">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O5">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P5">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q5">
-        <v>64.34856514648378</v>
+        <v>584.7251933730656</v>
       </c>
       <c r="R5">
-        <v>579.137086318354</v>
+        <v>5262.526740357591</v>
       </c>
       <c r="S5">
-        <v>0.04004697419642274</v>
+        <v>0.04070982182046844</v>
       </c>
       <c r="T5">
-        <v>0.04004697419642272</v>
+        <v>0.04070982182046844</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,25 +782,25 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>4.017245666666667</v>
+        <v>42.83204533333333</v>
       </c>
       <c r="H6">
-        <v>12.051737</v>
+        <v>128.496136</v>
       </c>
       <c r="I6">
-        <v>0.7057095797657195</v>
+        <v>0.9636841903994534</v>
       </c>
       <c r="J6">
-        <v>0.7057095797657194</v>
+        <v>0.9636841903994535</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N6">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O6">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P6">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q6">
-        <v>78.77554417568467</v>
+        <v>778.6183384344355</v>
       </c>
       <c r="R6">
-        <v>708.979897581162</v>
+        <v>7007.565045909919</v>
       </c>
       <c r="S6">
-        <v>0.04902552493177369</v>
+        <v>0.05420907835519157</v>
       </c>
       <c r="T6">
-        <v>0.04902552493177367</v>
+        <v>0.05420907835519157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,25 +844,25 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>4.017245666666667</v>
+        <v>42.83204533333333</v>
       </c>
       <c r="H7">
-        <v>12.051737</v>
+        <v>128.496136</v>
       </c>
       <c r="I7">
-        <v>0.7057095797657195</v>
+        <v>0.9636841903994534</v>
       </c>
       <c r="J7">
-        <v>0.7057095797657194</v>
+        <v>0.9636841903994535</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N7">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O7">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P7">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q7">
-        <v>256.637774393527</v>
+        <v>5223.243943906108</v>
       </c>
       <c r="R7">
-        <v>2309.739969541743</v>
+        <v>47009.19549515497</v>
       </c>
       <c r="S7">
-        <v>0.1597171017810416</v>
+        <v>0.3636534438590401</v>
       </c>
       <c r="T7">
-        <v>0.1597171017810415</v>
+        <v>0.3636534438590401</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.970546</v>
       </c>
       <c r="I8">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818113</v>
       </c>
       <c r="J8">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818114</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N8">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O8">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P8">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q8">
-        <v>31.51682203985533</v>
+        <v>29.84526360466867</v>
       </c>
       <c r="R8">
-        <v>283.651398358698</v>
+        <v>268.607372442018</v>
       </c>
       <c r="S8">
-        <v>0.01961432016565023</v>
+        <v>0.002077891250968869</v>
       </c>
       <c r="T8">
-        <v>0.01961432016565022</v>
+        <v>0.002077891250968868</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.970546</v>
       </c>
       <c r="I9">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818113</v>
       </c>
       <c r="J9">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818114</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q9">
         <v>11.29483842318267</v>
@@ -1013,10 +1013,10 @@
         <v>101.653545808644</v>
       </c>
       <c r="S9">
-        <v>0.007029280324375297</v>
+        <v>0.0007863708711544759</v>
       </c>
       <c r="T9">
-        <v>0.007029280324375294</v>
+        <v>0.000786370871154476</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1045,10 +1045,10 @@
         <v>0.970546</v>
       </c>
       <c r="I10">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818113</v>
       </c>
       <c r="J10">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818114</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N10">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q10">
-        <v>16.31397015245933</v>
+        <v>13.65808806193356</v>
       </c>
       <c r="R10">
-        <v>146.825731372134</v>
+        <v>122.922792557402</v>
       </c>
       <c r="S10">
-        <v>0.01015290924124746</v>
+        <v>0.000950905378648243</v>
       </c>
       <c r="T10">
-        <v>0.01015290924124746</v>
+        <v>0.0009509053786482431</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1107,10 +1107,10 @@
         <v>0.970546</v>
       </c>
       <c r="I11">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818113</v>
       </c>
       <c r="J11">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818114</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N11">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O11">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P11">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q11">
-        <v>5.182094706236889</v>
+        <v>4.416496209095778</v>
       </c>
       <c r="R11">
-        <v>46.63885235613201</v>
+        <v>39.748465881862</v>
       </c>
       <c r="S11">
-        <v>0.003225048025727852</v>
+        <v>0.0003074859366087737</v>
       </c>
       <c r="T11">
-        <v>0.003225048025727851</v>
+        <v>0.0003074859366087737</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1169,10 +1169,10 @@
         <v>0.970546</v>
       </c>
       <c r="I12">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818113</v>
       </c>
       <c r="J12">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818114</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N12">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O12">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P12">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q12">
-        <v>6.343922813577334</v>
+        <v>5.880993292235556</v>
       </c>
       <c r="R12">
-        <v>57.09530532219601</v>
+        <v>52.92893963012001</v>
       </c>
       <c r="S12">
-        <v>0.003948105332902073</v>
+        <v>0.0004094473639372141</v>
       </c>
       <c r="T12">
-        <v>0.003948105332902071</v>
+        <v>0.0004094473639372141</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1231,10 +1231,10 @@
         <v>0.970546</v>
       </c>
       <c r="I13">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818113</v>
       </c>
       <c r="J13">
-        <v>0.05683194130466836</v>
+        <v>0.007278816821818114</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N13">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O13">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P13">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q13">
-        <v>20.667457760366</v>
+        <v>39.45175843094844</v>
       </c>
       <c r="R13">
-        <v>186.007119843294</v>
+        <v>355.065825878536</v>
       </c>
       <c r="S13">
-        <v>0.01286227821476546</v>
+        <v>0.002746716020500538</v>
       </c>
       <c r="T13">
-        <v>0.01286227821476545</v>
+        <v>0.002746716020500539</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.133219666666667</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H14">
-        <v>3.399659</v>
+        <v>0.165205</v>
       </c>
       <c r="I14">
-        <v>0.1990727082939784</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="J14">
-        <v>0.1990727082939783</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N14">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O14">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P14">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q14">
-        <v>110.3981137413297</v>
+        <v>5.080219560751666</v>
       </c>
       <c r="R14">
-        <v>993.5830236719669</v>
+        <v>45.72197604676499</v>
       </c>
       <c r="S14">
-        <v>0.06870565648617817</v>
+        <v>0.0003536957796089128</v>
       </c>
       <c r="T14">
-        <v>0.06870565648617813</v>
+        <v>0.0003536957796089128</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.133219666666667</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H15">
-        <v>3.399659</v>
+        <v>0.165205</v>
       </c>
       <c r="I15">
-        <v>0.1990727082939784</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="J15">
-        <v>0.1990727082939783</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q15">
-        <v>39.56391464074733</v>
+        <v>1.922591800596667</v>
       </c>
       <c r="R15">
-        <v>356.075231766726</v>
+        <v>17.30332620537</v>
       </c>
       <c r="S15">
-        <v>0.02462238381105624</v>
+        <v>0.0001338549638750509</v>
       </c>
       <c r="T15">
-        <v>0.02462238381105623</v>
+        <v>0.000133854963875051</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.133219666666667</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H16">
-        <v>3.399659</v>
+        <v>0.165205</v>
       </c>
       <c r="I16">
-        <v>0.1990727082939784</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="J16">
-        <v>0.1990727082939783</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N16">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q16">
-        <v>57.14508684239566</v>
+        <v>2.324860890953889</v>
       </c>
       <c r="R16">
-        <v>514.305781581561</v>
+        <v>20.923748018585</v>
       </c>
       <c r="S16">
-        <v>0.03556392925032931</v>
+        <v>0.0001618618005530732</v>
       </c>
       <c r="T16">
-        <v>0.03556392925032929</v>
+        <v>0.0001618618005530732</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.133219666666667</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H17">
-        <v>3.399659</v>
+        <v>0.165205</v>
       </c>
       <c r="I17">
-        <v>0.1990727082939784</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="J17">
-        <v>0.1990727082939783</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N17">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O17">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P17">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q17">
-        <v>18.15200403371977</v>
+        <v>0.7517698864594443</v>
       </c>
       <c r="R17">
-        <v>163.368036303478</v>
+        <v>6.765928978134999</v>
       </c>
       <c r="S17">
-        <v>0.0112967994779206</v>
+        <v>5.2339831556106E-05</v>
       </c>
       <c r="T17">
-        <v>0.01129679947792059</v>
+        <v>5.2339831556106E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.133219666666667</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H18">
-        <v>3.399659</v>
+        <v>0.165205</v>
       </c>
       <c r="I18">
-        <v>0.1990727082939784</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="J18">
-        <v>0.1990727082939783</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N18">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O18">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P18">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q18">
-        <v>22.22169200479266</v>
+        <v>1.001054557788889</v>
       </c>
       <c r="R18">
-        <v>199.995228043134</v>
+        <v>9.0094910201</v>
       </c>
       <c r="S18">
-        <v>0.01382954731455132</v>
+        <v>6.96955649286561E-05</v>
       </c>
       <c r="T18">
-        <v>0.01382954731455131</v>
+        <v>6.96955649286561E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,25 +1588,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.133219666666667</v>
+        <v>0.05506833333333333</v>
       </c>
       <c r="H19">
-        <v>3.399659</v>
+        <v>0.165205</v>
       </c>
       <c r="I19">
-        <v>0.1990727082939784</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="J19">
-        <v>0.1990727082939783</v>
+        <v>0.001238990148893985</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N19">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O19">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P19">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q19">
-        <v>72.39461991718899</v>
+        <v>6.715423845531111</v>
       </c>
       <c r="R19">
-        <v>651.551579254701</v>
+        <v>60.43881460978</v>
       </c>
       <c r="S19">
-        <v>0.04505439195394275</v>
+        <v>0.0004675422083721858</v>
       </c>
       <c r="T19">
-        <v>0.04505439195394273</v>
+        <v>0.0004675422083721858</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.1422643333333334</v>
+        <v>1.14173</v>
       </c>
       <c r="H20">
-        <v>0.426793</v>
+        <v>3.42519</v>
       </c>
       <c r="I20">
-        <v>0.02499157662310012</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="J20">
-        <v>0.02499157662310011</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N20">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O20">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P20">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q20">
-        <v>13.85937300123434</v>
+        <v>105.32803024903</v>
       </c>
       <c r="R20">
-        <v>124.734357011109</v>
+        <v>947.95227224127</v>
       </c>
       <c r="S20">
-        <v>0.008625304258075721</v>
+        <v>0.007333163326525544</v>
       </c>
       <c r="T20">
-        <v>0.008625304258075716</v>
+        <v>0.007333163326525542</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.1422643333333334</v>
+        <v>1.14173</v>
       </c>
       <c r="H21">
-        <v>0.426793</v>
+        <v>3.42519</v>
       </c>
       <c r="I21">
-        <v>0.02499157662310012</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="J21">
-        <v>0.02499157662310011</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>104.738514</v>
       </c>
       <c r="O21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q21">
-        <v>4.966851622844668</v>
+        <v>39.86103452974</v>
       </c>
       <c r="R21">
-        <v>44.70166460560201</v>
+        <v>358.7493107676601</v>
       </c>
       <c r="S21">
-        <v>0.003091092681316606</v>
+        <v>0.002775210700131267</v>
       </c>
       <c r="T21">
-        <v>0.003091092681316604</v>
+        <v>0.002775210700131267</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,25 +1774,25 @@
         <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1422643333333334</v>
+        <v>1.14173</v>
       </c>
       <c r="H22">
-        <v>0.426793</v>
+        <v>3.42519</v>
       </c>
       <c r="I22">
-        <v>0.02499157662310012</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="J22">
-        <v>0.02499157662310011</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N22">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q22">
-        <v>7.173990994016334</v>
+        <v>48.20126676000335</v>
       </c>
       <c r="R22">
-        <v>64.56591894614701</v>
+        <v>433.8114008400301</v>
       </c>
       <c r="S22">
-        <v>0.004464693681494468</v>
+        <v>0.003355875552412947</v>
       </c>
       <c r="T22">
-        <v>0.004464693681494466</v>
+        <v>0.003355875552412947</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1422643333333334</v>
+        <v>1.14173</v>
       </c>
       <c r="H23">
-        <v>0.426793</v>
+        <v>3.42519</v>
       </c>
       <c r="I23">
-        <v>0.02499157662310012</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="J23">
-        <v>0.02499157662310011</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N23">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O23">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P23">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q23">
-        <v>2.278801567322889</v>
+        <v>15.58642109743667</v>
       </c>
       <c r="R23">
-        <v>20.509214105906</v>
+        <v>140.27778987693</v>
       </c>
       <c r="S23">
-        <v>0.001418199572245383</v>
+        <v>0.001085160059608721</v>
       </c>
       <c r="T23">
-        <v>0.001418199572245382</v>
+        <v>0.001085160059608721</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1422643333333334</v>
+        <v>1.14173</v>
       </c>
       <c r="H24">
-        <v>0.426793</v>
+        <v>3.42519</v>
       </c>
       <c r="I24">
-        <v>0.02499157662310012</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="J24">
-        <v>0.02499157662310011</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N24">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O24">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P24">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q24">
-        <v>2.789709966735334</v>
+        <v>20.75483224353334</v>
       </c>
       <c r="R24">
-        <v>25.107389700618</v>
+        <v>186.7934901918</v>
       </c>
       <c r="S24">
-        <v>0.001736160593465198</v>
+        <v>0.001444995926503336</v>
       </c>
       <c r="T24">
-        <v>0.001736160593465197</v>
+        <v>0.001444995926503336</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,25 +1960,25 @@
         <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1422643333333334</v>
+        <v>1.14173</v>
       </c>
       <c r="H25">
-        <v>0.426793</v>
+        <v>3.42519</v>
       </c>
       <c r="I25">
-        <v>0.02499157662310012</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="J25">
-        <v>0.02499157662310011</v>
+        <v>0.02568794327102805</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N25">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O25">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P25">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q25">
-        <v>9.088416520103001</v>
+        <v>139.2306685722267</v>
       </c>
       <c r="R25">
-        <v>81.79574868092701</v>
+        <v>1253.07601715004</v>
       </c>
       <c r="S25">
-        <v>0.005656125836502747</v>
+        <v>0.009693537705846236</v>
       </c>
       <c r="T25">
-        <v>0.005656125836502744</v>
+        <v>0.009693537705846236</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.07624633333333333</v>
+        <v>0.09378399999999999</v>
       </c>
       <c r="H26">
-        <v>0.228739</v>
+        <v>0.281352</v>
       </c>
       <c r="I26">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806455</v>
       </c>
       <c r="J26">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806456</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N26">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O26">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P26">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q26">
-        <v>7.427907957556333</v>
+        <v>8.651856383623999</v>
       </c>
       <c r="R26">
-        <v>66.851171618007</v>
+        <v>77.866707452616</v>
       </c>
       <c r="S26">
-        <v>0.0046227175016647</v>
+        <v>0.0006023607940711652</v>
       </c>
       <c r="T26">
-        <v>0.004622717501664697</v>
+        <v>0.0006023607940711652</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.07624633333333333</v>
+        <v>0.09378399999999999</v>
       </c>
       <c r="H27">
-        <v>0.228739</v>
+        <v>0.281352</v>
       </c>
       <c r="I27">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806455</v>
       </c>
       <c r="J27">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806456</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>104.738514</v>
       </c>
       <c r="O27">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P27">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q27">
-        <v>2.661975883760667</v>
+        <v>3.274265598992</v>
       </c>
       <c r="R27">
-        <v>23.957782953846</v>
+        <v>29.468390390928</v>
       </c>
       <c r="S27">
-        <v>0.001656665992253104</v>
+        <v>0.0002279613921865158</v>
       </c>
       <c r="T27">
-        <v>0.001656665992253103</v>
+        <v>0.0002279613921865158</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2146,7 +2146,7 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.07624633333333333</v>
+        <v>0.09378399999999999</v>
       </c>
       <c r="H28">
-        <v>0.228739</v>
+        <v>0.281352</v>
       </c>
       <c r="I28">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806455</v>
       </c>
       <c r="J28">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806456</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N28">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O28">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P28">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q28">
-        <v>3.844888566542333</v>
+        <v>3.959349059602667</v>
       </c>
       <c r="R28">
-        <v>34.603997098881</v>
+        <v>35.634141536424</v>
       </c>
       <c r="S28">
-        <v>0.002392845168527513</v>
+        <v>0.0002756583717757226</v>
       </c>
       <c r="T28">
-        <v>0.002392845168527512</v>
+        <v>0.0002756583717757227</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.07624633333333333</v>
+        <v>0.09378399999999999</v>
       </c>
       <c r="H29">
-        <v>0.228739</v>
+        <v>0.281352</v>
       </c>
       <c r="I29">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806455</v>
       </c>
       <c r="J29">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806456</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N29">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O29">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P29">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q29">
-        <v>1.221319917870889</v>
+        <v>1.280299997549333</v>
       </c>
       <c r="R29">
-        <v>10.991879260838</v>
+        <v>11.522699977944</v>
       </c>
       <c r="S29">
-        <v>0.0007600817069535737</v>
+        <v>8.913723124586748E-05</v>
       </c>
       <c r="T29">
-        <v>0.0007600817069535734</v>
+        <v>8.913723124586749E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.07624633333333333</v>
+        <v>0.09378399999999999</v>
       </c>
       <c r="H30">
-        <v>0.228739</v>
+        <v>0.281352</v>
       </c>
       <c r="I30">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806455</v>
       </c>
       <c r="J30">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806456</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N30">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O30">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P30">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q30">
-        <v>1.495140426579334</v>
+        <v>1.704843690826667</v>
       </c>
       <c r="R30">
-        <v>13.456263839214</v>
+        <v>15.34359321744</v>
       </c>
       <c r="S30">
-        <v>0.0009304923885551919</v>
+        <v>0.0001186948735438228</v>
       </c>
       <c r="T30">
-        <v>0.0009304923885551913</v>
+        <v>0.0001186948735438228</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,7 +2332,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.07624633333333333</v>
+        <v>0.09378399999999999</v>
       </c>
       <c r="H31">
-        <v>0.228739</v>
+        <v>0.281352</v>
       </c>
       <c r="I31">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806455</v>
       </c>
       <c r="J31">
-        <v>0.0133941940125337</v>
+        <v>0.002110059358806456</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N31">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O31">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P31">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q31">
-        <v>4.870921749869</v>
+        <v>11.43668732658133</v>
       </c>
       <c r="R31">
-        <v>43.838295748821</v>
+        <v>102.930185939232</v>
       </c>
       <c r="S31">
-        <v>0.003031391254579625</v>
+        <v>0.0007962466959833613</v>
       </c>
       <c r="T31">
-        <v>0.003031391254579623</v>
+        <v>0.0007962466959833615</v>
       </c>
     </row>
   </sheetData>
